--- a/File Structure.xlsx
+++ b/File Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SMW---Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A131A7-294F-45C1-9978-113128A82900}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{914E13CD-F6E6-4234-9179-FD62BA0E730A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{9AE992EB-61F5-4A8F-A9BB-284B7E7513BD}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>No.</t>
   </si>
@@ -160,13 +161,43 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Conceptialise features</t>
+  </si>
+  <si>
+    <t>Find planetary gears</t>
+  </si>
+  <si>
+    <t>Google shit</t>
+  </si>
+  <si>
+    <t>Find bearings</t>
+  </si>
+  <si>
+    <t>Get Cameras</t>
+  </si>
+  <si>
+    <t>Contact P</t>
+  </si>
+  <si>
+    <t>Look up fiberglass</t>
+  </si>
+  <si>
+    <t>https://www.teachmemicro.com/raspberry-pi-zero-web-server/</t>
+  </si>
+  <si>
+    <t>Agri/Dog Feeder</t>
+  </si>
+  <si>
+    <t>DECO3801</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +210,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,10 +236,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,11 +249,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <color rgb="FFC00000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -320,471 +467,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1106,7 +788,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1159,6 +841,9 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
       <c r="H3" t="s">
         <v>42</v>
       </c>
@@ -1173,6 +858,9 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
       <c r="H4" t="s">
         <v>41</v>
       </c>
@@ -1201,6 +889,10 @@
       <c r="C6" t="s">
         <v>41</v>
       </c>
+      <c r="E6" t="str">
+        <f>E8</f>
+        <v>Get Cameras</v>
+      </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
@@ -1229,6 +921,9 @@
       <c r="C8" t="s">
         <v>37</v>
       </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -1243,6 +938,9 @@
       <c r="D9" s="3">
         <v>4</v>
       </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -1254,6 +952,9 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -1264,6 +965,9 @@
       </c>
       <c r="C11" t="s">
         <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1277,6 +981,9 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
@@ -1289,6 +996,9 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
@@ -1313,11 +1023,23 @@
         <f t="shared" si="0"/>
         <v>P00D</v>
       </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>P00E</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -1654,39 +1376,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>IF(MOD(ROW(),2) = 1, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Active"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Stalled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Dead"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Dead"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Stalled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Active"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{69F2B20B-9E4C-40B7-A505-7F80BB837C9B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/File Structure.xlsx
+++ b/File Structure.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SMW---Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914E13CD-F6E6-4234-9179-FD62BA0E730A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010247C-8185-442F-8352-3C9F59275C39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{9AE992EB-61F5-4A8F-A9BB-284B7E7513BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>No.</t>
   </si>
@@ -191,6 +190,18 @@
   </si>
   <si>
     <t>DECO3801</t>
+  </si>
+  <si>
+    <t>Grappling Hook</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Pipboy</t>
+  </si>
+  <si>
+    <t>Tarot</t>
   </si>
 </sst>
 </file>
@@ -788,7 +799,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1042,97 +1053,109 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>P00F</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>P00G</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>P00H</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>P00I</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>P00J</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>P00K</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>P00L</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>P00M</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>P00N</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT("P00",CHAR((65-12)+ROW()))</f>
         <v>P00O</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>P00P</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>P00Q</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>P00R</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>P00S</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>P00T</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>P00U</v>

--- a/File Structure.xlsx
+++ b/File Structure.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SMW---Projects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6010247C-8185-442F-8352-3C9F59275C39}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11023" xr2:uid="{9AE992EB-61F5-4A8F-A9BB-284B7E7513BD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -202,12 +196,18 @@
   </si>
   <si>
     <t>Tarot</t>
+  </si>
+  <si>
+    <t>Bed Shelf</t>
+  </si>
+  <si>
+    <t>Spraypaint Drone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +266,120 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <color rgb="FFC00000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -788,29 +901,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB46923-351B-441C-9FDE-6A212464F243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.640625" customWidth="1"/>
-    <col min="3" max="3" width="7.78515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.78515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +941,7 @@
       </c>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -842,7 +955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -859,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -876,7 +989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -890,7 +1003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -908,7 +1021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -922,7 +1035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -936,7 +1049,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -953,7 +1066,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -967,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -981,7 +1094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT("P00",CHAR((65-12)+ROW()))</f>
         <v>P00A</v>
@@ -996,7 +1109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ref="A13:A36" si="0">_xlfn.CONCAT("P00",CHAR((65-12)+ROW()))</f>
         <v>P00B</v>
@@ -1011,7 +1124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>P00C</v>
@@ -1029,7 +1142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>P00D</v>
@@ -1041,7 +1154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>P00E</v>
@@ -1053,7 +1166,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>P00F</v>
@@ -1061,8 +1174,11 @@
       <c r="B17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>P00G</v>
@@ -1070,8 +1186,11 @@
       <c r="B18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>P00H</v>
@@ -1079,8 +1198,11 @@
       <c r="B19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>P00I</v>
@@ -1088,310 +1210,325 @@
       <c r="B20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>P00J</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>P00K</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>P00L</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>P00M</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>P00N</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT("P00",CHAR((65-12)+ROW()))</f>
         <v>P00O</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>P00P</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>P00Q</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>P00R</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>P00S</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>P00T</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>P00U</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>P00V</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>_xlfn.CONCAT("P00",CHAR((65-12)+ROW()))</f>
         <v>P00W</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>P00X</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>P00Y</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>_xlfn.CONCAT("P00",CHAR((65-12)+ROW()))</f>
         <v>P00Z</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("P01",CHAR((65-48)+ROW()))</f>
         <v>P01A</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A73" si="1">_xlfn.CONCAT("P01",CHAR((65-48)+ROW()))</f>
         <v>P01B</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="1"/>
         <v>P01C</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="1"/>
         <v>P01D</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="1"/>
         <v>P01E</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="1"/>
         <v>P01F</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="1"/>
         <v>P01G</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="1"/>
         <v>P01H</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="1"/>
         <v>P01I</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="1"/>
         <v>P01J</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="1"/>
         <v>P01K</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="1"/>
         <v>P01L</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="1"/>
         <v>P01M</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="1"/>
         <v>P01N</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="1"/>
         <v>P01O</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="1"/>
         <v>P01P</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="1"/>
         <v>P01Q</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="1"/>
         <v>P01R</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>P01S</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>P01T</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>_xlfn.CONCAT("P01",CHAR((65-48)+ROW()))</f>
         <v>P01U</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>P01V</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>P01W</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>P01X</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>P01Y</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>P01Z</v>
@@ -1399,40 +1536,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>IF(MOD(ROW(),2) = 1, TRUE, FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Active"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Stalled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Dead"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Dead"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Stalled"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Active"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{69F2B20B-9E4C-40B7-A505-7F80BB837C9B}"/>
+    <hyperlink ref="E10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
